--- a/feebee/tests/ff.xlsx
+++ b/feebee/tests/ff.xlsx
@@ -30,10 +30,10 @@
     <t>hml</t>
   </si>
   <si>
-    <t>rf</t>
+    <t>mktrf</t>
   </si>
   <si>
-    <t>mktrf</t>
+    <t xml:space="preserve">rf  </t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:E961"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -453,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
